--- a/model/results.xlsx
+++ b/model/results.xlsx
@@ -182,6 +182,7 @@
     <sheet name="heat_rate_binary_15_1" sheetId="174" state="visible" r:id="rId174"/>
     <sheet name="heat_rate_binary_15_2" sheetId="175" state="visible" r:id="rId175"/>
     <sheet name="heat_rate_binary_15_3" sheetId="176" state="visible" r:id="rId176"/>
+    <sheet name="quantity_binary" sheetId="177" state="visible" r:id="rId177"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1195,28 +1196,28 @@
         <v>258</v>
       </c>
       <c r="B2" t="n">
-        <v>257.52</v>
+        <v>258</v>
       </c>
       <c r="C2" t="n">
         <v>306.4</v>
       </c>
       <c r="D2" t="n">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="E2" t="n">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F2" t="n">
-        <v>418.2885245901639</v>
+        <v>418.2285714285714</v>
       </c>
       <c r="G2" t="n">
-        <v>57.6639344262295</v>
+        <v>63.21428571428572</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1237,13 +1238,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>189.7704918032788</v>
+        <v>194.5714285714287</v>
       </c>
       <c r="Q2" t="n">
-        <v>335.1295081967213</v>
+        <v>334.5</v>
       </c>
       <c r="R2" t="n">
-        <v>271.2213114754098</v>
+        <v>271.0714285714286</v>
       </c>
       <c r="S2" t="n">
         <v>222</v>
@@ -1281,10 +1282,10 @@
         <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>188</v>
+        <v>193.9999999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>14.9311475409836</v>
+        <v>14.57142857142858</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1305,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>207.5262295081968</v>
+        <v>206.357142857143</v>
       </c>
       <c r="Q3" t="n">
-        <v>286.6409836065574</v>
+        <v>292.0714285714286</v>
       </c>
       <c r="R3" t="n">
-        <v>246.4885245901639</v>
+        <v>246.4285714285714</v>
       </c>
       <c r="S3" t="n">
         <v>186</v>
@@ -1326,13 +1327,13 @@
         <v>216</v>
       </c>
       <c r="U3" t="n">
-        <v>281.52</v>
+        <v>282</v>
       </c>
       <c r="V3" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="W3" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="X3" t="n">
         <v>246</v>
@@ -1358,7 +1359,7 @@
         <v>431.25</v>
       </c>
       <c r="G4" t="n">
-        <v>45.90819672131147</v>
+        <v>45.42857142857144</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1373,43 +1374,43 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>98.80530376084869</v>
+        <v>93.21428571428589</v>
       </c>
       <c r="M4" t="n">
-        <v>293.9688524590164</v>
+        <v>286.5000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>550</v>
+        <v>550.0000000000002</v>
       </c>
       <c r="O4" t="n">
-        <v>550</v>
+        <v>550.0000000000002</v>
       </c>
       <c r="P4" t="n">
-        <v>550</v>
+        <v>550.0000000000002</v>
       </c>
       <c r="Q4" t="n">
-        <v>550</v>
+        <v>550.0000000000002</v>
       </c>
       <c r="R4" t="n">
-        <v>550</v>
+        <v>550.0000000000002</v>
       </c>
       <c r="S4" t="n">
-        <v>540.75</v>
+        <v>534.75</v>
       </c>
       <c r="T4" t="n">
-        <v>550</v>
+        <v>550.0000000000002</v>
       </c>
       <c r="U4" t="n">
-        <v>550</v>
+        <v>550.0000000000002</v>
       </c>
       <c r="V4" t="n">
-        <v>550</v>
+        <v>550.0000000000002</v>
       </c>
       <c r="W4" t="n">
-        <v>550</v>
+        <v>550.0000000000002</v>
       </c>
       <c r="X4" t="n">
-        <v>550</v>
+        <v>550.0000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1507,224 +1508,224 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.3764705882353</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>28.3764705882353</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>21.31764705882353</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14.25882352941177</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>14.25882352941177</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14.25882352941177</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>14.25882352941177</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14.25882352941177</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14.25882352941177</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>14.25882352941177</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>28.3764705882353</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>21.31764705882353</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.25882352941177</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>14.25882352941177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>35.43529411764706</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>28.3764705882353</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>21.31764705882353</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.25882352941177</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1822,224 +1823,224 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28.3764705882353</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.3764705882353</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>28.3764705882353</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>28.3764705882353</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>21.31764705882353</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>14.25882352941177</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>28.3764705882353</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>28.3764705882353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14.82352941176471</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>14.82352941176471</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14.82352941176471</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14.82352941176471</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>14.82352941176471</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>14.25882352941177</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>32.7</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>28.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>21.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>21.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>21.88235294117647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>20.7</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>30.33529411764706</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.27647058823529</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.21764705882353</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>16.21764705882353</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>21.31764705882353</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>21.31764705882353</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>21.31764705882353</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>21.31764705882353</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>14.25882352941177</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4669,19 +4670,19 @@
         <v>483</v>
       </c>
       <c r="E2" t="n">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F2" t="n">
-        <v>412.2885245901639</v>
+        <v>417.6181818181818</v>
       </c>
       <c r="G2" t="n">
-        <v>57.6639344262295</v>
+        <v>58.63636363636365</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -4702,13 +4703,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>195.7704918032788</v>
+        <v>182.3636363636365</v>
       </c>
       <c r="Q2" t="n">
-        <v>329.1295081967213</v>
+        <v>328.0909090909091</v>
       </c>
       <c r="R2" t="n">
-        <v>271.2213114754098</v>
+        <v>269.5454545454546</v>
       </c>
       <c r="S2" t="n">
         <v>222</v>
@@ -4723,7 +4724,7 @@
         <v>318</v>
       </c>
       <c r="W2" t="n">
-        <v>317.52</v>
+        <v>318</v>
       </c>
       <c r="X2" t="n">
         <v>300</v>
@@ -4731,7 +4732,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B3" t="n">
         <v>156</v>
@@ -4746,10 +4747,10 @@
         <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>193.5199999999997</v>
+        <v>193.9999999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>8.931147540983602</v>
+        <v>10.90909090909093</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -4770,19 +4771,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>207.5262295081968</v>
+        <v>194.4545454545456</v>
       </c>
       <c r="Q3" t="n">
-        <v>286.6409836065574</v>
+        <v>286.2727272727273</v>
       </c>
       <c r="R3" t="n">
-        <v>246.4885245901639</v>
+        <v>245.8181818181818</v>
       </c>
       <c r="S3" t="n">
         <v>186</v>
@@ -4794,7 +4795,7 @@
         <v>282</v>
       </c>
       <c r="V3" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="W3" t="n">
         <v>288</v>
@@ -4808,10 +4809,10 @@
         <v>483.0000000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>452.3823529411765</v>
+        <v>448.5</v>
       </c>
       <c r="C4" t="n">
-        <v>437.25</v>
+        <v>431.25</v>
       </c>
       <c r="D4" t="n">
         <v>448.5</v>
@@ -4823,7 +4824,7 @@
         <v>431.25</v>
       </c>
       <c r="G4" t="n">
-        <v>45.90819672131147</v>
+        <v>40.54545454545456</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -4838,43 +4839,43 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>94.92295081967222</v>
+        <v>75.81818181818187</v>
       </c>
       <c r="M4" t="n">
-        <v>287.9688524590164</v>
+        <v>271.5454545454546</v>
       </c>
       <c r="N4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="O4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="P4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="Q4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="R4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="S4" t="n">
-        <v>540.75</v>
+        <v>534.75</v>
       </c>
       <c r="T4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="U4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="V4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="W4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="X4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -8137,16 +8138,16 @@
         <v>483</v>
       </c>
       <c r="F2" t="n">
-        <v>418.2885245901639</v>
+        <v>417.6181818181818</v>
       </c>
       <c r="G2" t="n">
-        <v>63.6639344262295</v>
+        <v>58.63636363636365</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -8167,13 +8168,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>195.7704918032788</v>
+        <v>182.3636363636365</v>
       </c>
       <c r="Q2" t="n">
-        <v>335.1295081967213</v>
+        <v>328.0909090909091</v>
       </c>
       <c r="R2" t="n">
-        <v>271.2213114754098</v>
+        <v>269.5454545454546</v>
       </c>
       <c r="S2" t="n">
         <v>222</v>
@@ -8211,10 +8212,10 @@
         <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>194</v>
+        <v>193.9999999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>14.9311475409836</v>
+        <v>10.90909090909093</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -8235,19 +8236,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>207.5262295081968</v>
+        <v>194.4545454545456</v>
       </c>
       <c r="Q3" t="n">
-        <v>292.6409836065574</v>
+        <v>286.2727272727273</v>
       </c>
       <c r="R3" t="n">
-        <v>246.4885245901639</v>
+        <v>245.8181818181818</v>
       </c>
       <c r="S3" t="n">
         <v>186</v>
@@ -8288,7 +8289,7 @@
         <v>431.25</v>
       </c>
       <c r="G4" t="n">
-        <v>45.90819672131147</v>
+        <v>40.54545454545456</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -8303,43 +8304,43 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>94.92295081967222</v>
+        <v>75.81818181818187</v>
       </c>
       <c r="M4" t="n">
-        <v>287.9688524590164</v>
+        <v>271.5454545454546</v>
       </c>
       <c r="N4" t="n">
-        <v>550</v>
+        <v>550.0000000000002</v>
       </c>
       <c r="O4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="P4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="Q4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="R4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="S4" t="n">
         <v>534.75</v>
       </c>
       <c r="T4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="U4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="V4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="W4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="X4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -11602,16 +11603,16 @@
         <v>483</v>
       </c>
       <c r="F2" t="n">
-        <v>418.2885245901639</v>
+        <v>417.6181818181818</v>
       </c>
       <c r="G2" t="n">
-        <v>63.6639344262295</v>
+        <v>58.63636363636365</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -11632,13 +11633,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>195.7704918032788</v>
+        <v>182.3636363636365</v>
       </c>
       <c r="Q2" t="n">
-        <v>335.1295081967213</v>
+        <v>328.0909090909091</v>
       </c>
       <c r="R2" t="n">
-        <v>271.2213114754098</v>
+        <v>269.5454545454546</v>
       </c>
       <c r="S2" t="n">
         <v>222</v>
@@ -11676,10 +11677,10 @@
         <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>194</v>
+        <v>193.9999999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>14.9311475409836</v>
+        <v>10.90909090909093</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -11700,19 +11701,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>207.5262295081968</v>
+        <v>194.4545454545456</v>
       </c>
       <c r="Q3" t="n">
-        <v>292.6409836065574</v>
+        <v>286.2727272727273</v>
       </c>
       <c r="R3" t="n">
-        <v>246.4885245901639</v>
+        <v>245.8181818181818</v>
       </c>
       <c r="S3" t="n">
         <v>186</v>
@@ -11753,7 +11754,7 @@
         <v>431.25</v>
       </c>
       <c r="G4" t="n">
-        <v>45.90819672131147</v>
+        <v>40.54545454545456</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -11768,43 +11769,43 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>94.92295081967222</v>
+        <v>75.81818181818187</v>
       </c>
       <c r="M4" t="n">
-        <v>287.9688524590164</v>
+        <v>271.5454545454546</v>
       </c>
       <c r="N4" t="n">
-        <v>550</v>
+        <v>550.0000000000002</v>
       </c>
       <c r="O4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="P4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="Q4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="R4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="S4" t="n">
         <v>534.75</v>
       </c>
       <c r="T4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="U4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="V4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="W4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="X4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -11818,7 +11819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11872,9 +11873,6 @@
       <c r="O1" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -11922,9 +11920,6 @@
       <c r="O2" t="n">
         <v>600</v>
       </c>
-      <c r="P2" t="n">
-        <v>600</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -11970,9 +11965,6 @@
         <v>550</v>
       </c>
       <c r="O3" t="n">
-        <v>550</v>
-      </c>
-      <c r="P3" t="n">
         <v>550</v>
       </c>
     </row>
@@ -11987,7 +11979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12026,244 +12018,6 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13105,16 +12859,16 @@
         <v>483</v>
       </c>
       <c r="F2" t="n">
-        <v>418.2885245901639</v>
+        <v>417.6181818181818</v>
       </c>
       <c r="G2" t="n">
-        <v>63.6639344262295</v>
+        <v>58.63636363636365</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -13135,13 +12889,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>195.7704918032788</v>
+        <v>182.3636363636365</v>
       </c>
       <c r="Q2" t="n">
-        <v>335.1295081967213</v>
+        <v>328.0909090909091</v>
       </c>
       <c r="R2" t="n">
-        <v>271.2213114754098</v>
+        <v>269.5454545454546</v>
       </c>
       <c r="S2" t="n">
         <v>222</v>
@@ -13179,10 +12933,10 @@
         <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>194</v>
+        <v>193.9999999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>14.9311475409836</v>
+        <v>10.90909090909093</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -13203,19 +12957,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>207.5262295081968</v>
+        <v>194.4545454545456</v>
       </c>
       <c r="Q3" t="n">
-        <v>292.6409836065574</v>
+        <v>286.2727272727273</v>
       </c>
       <c r="R3" t="n">
-        <v>246.4885245901639</v>
+        <v>245.8181818181818</v>
       </c>
       <c r="S3" t="n">
         <v>186</v>
@@ -13256,7 +13010,7 @@
         <v>431.25</v>
       </c>
       <c r="G4" t="n">
-        <v>45.90819672131147</v>
+        <v>40.54545454545456</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -13271,43 +13025,43 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>94.92295081967222</v>
+        <v>75.81818181818187</v>
       </c>
       <c r="M4" t="n">
-        <v>287.9688524590164</v>
+        <v>271.5454545454546</v>
       </c>
       <c r="N4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="O4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="P4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="Q4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="R4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="S4" t="n">
         <v>534.75</v>
       </c>
       <c r="T4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="U4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="V4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="W4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="X4" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -14330,16 +14084,16 @@
         <v>483</v>
       </c>
       <c r="F2" t="n">
-        <v>418.2885245901639</v>
+        <v>419.6857142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>63.6639344262295</v>
+        <v>74.14285714285714</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -14360,13 +14114,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>195.7704918032788</v>
+        <v>223.7142857142858</v>
       </c>
       <c r="Q2" t="n">
-        <v>335.1295081967213</v>
+        <v>349.8</v>
       </c>
       <c r="R2" t="n">
-        <v>271.2213114754098</v>
+        <v>274.7142857142857</v>
       </c>
       <c r="S2" t="n">
         <v>222</v>
@@ -14404,10 +14158,10 @@
         <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>194</v>
+        <v>193.9999999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>14.9311475409836</v>
+        <v>23.31428571428572</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -14428,19 +14182,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>207.5262295081968</v>
+        <v>234.7714285714287</v>
       </c>
       <c r="Q3" t="n">
-        <v>292.6409836065574</v>
+        <v>305.9142857142857</v>
       </c>
       <c r="R3" t="n">
-        <v>246.4885245901639</v>
+        <v>247.8857142857143</v>
       </c>
       <c r="S3" t="n">
         <v>186</v>
@@ -14481,7 +14235,7 @@
         <v>431.25</v>
       </c>
       <c r="G4" t="n">
-        <v>45.90819672131147</v>
+        <v>57.08571428571426</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -14493,16 +14247,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>36.51428571428573</v>
       </c>
       <c r="L4" t="n">
-        <v>94.92295081967222</v>
+        <v>134.7428571428571</v>
       </c>
       <c r="M4" t="n">
-        <v>287.9688524590164</v>
+        <v>322.1999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>584.7934426229509</v>
+        <v>600</v>
       </c>
       <c r="O4" t="n">
         <v>600</v>
@@ -15555,16 +15309,16 @@
         <v>483</v>
       </c>
       <c r="F2" t="n">
-        <v>418.2885245901639</v>
+        <v>419.6857142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>63.6639344262295</v>
+        <v>74.14285714285714</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -15585,13 +15339,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>195.7704918032788</v>
+        <v>223.7142857142858</v>
       </c>
       <c r="Q2" t="n">
-        <v>335.1295081967213</v>
+        <v>349.8</v>
       </c>
       <c r="R2" t="n">
-        <v>271.2213114754098</v>
+        <v>274.7142857142857</v>
       </c>
       <c r="S2" t="n">
         <v>222</v>
@@ -15629,10 +15383,10 @@
         <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>194</v>
+        <v>193.9999999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>14.9311475409836</v>
+        <v>23.31428571428572</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -15653,19 +15407,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>207.5262295081968</v>
+        <v>234.7714285714287</v>
       </c>
       <c r="Q3" t="n">
-        <v>292.6409836065574</v>
+        <v>305.9142857142857</v>
       </c>
       <c r="R3" t="n">
-        <v>246.4885245901639</v>
+        <v>247.8857142857143</v>
       </c>
       <c r="S3" t="n">
         <v>186</v>
@@ -15706,7 +15460,7 @@
         <v>431.25</v>
       </c>
       <c r="G4" t="n">
-        <v>45.90819672131147</v>
+        <v>57.08571428571426</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -15718,16 +15472,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>36.51428571428573</v>
       </c>
       <c r="L4" t="n">
-        <v>94.92295081967222</v>
+        <v>134.7428571428571</v>
       </c>
       <c r="M4" t="n">
-        <v>287.9688524590164</v>
+        <v>322.1999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>584.7934426229509</v>
+        <v>600</v>
       </c>
       <c r="O4" t="n">
         <v>600</v>
@@ -16780,16 +16534,16 @@
         <v>483</v>
       </c>
       <c r="F2" t="n">
-        <v>418.2885245901639</v>
+        <v>419.6857142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>63.6639344262295</v>
+        <v>74.14285714285714</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -16810,13 +16564,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>195.7704918032788</v>
+        <v>223.7142857142858</v>
       </c>
       <c r="Q2" t="n">
-        <v>335.1295081967213</v>
+        <v>349.8</v>
       </c>
       <c r="R2" t="n">
-        <v>271.2213114754098</v>
+        <v>274.7142857142857</v>
       </c>
       <c r="S2" t="n">
         <v>222</v>
@@ -16854,10 +16608,10 @@
         <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>194</v>
+        <v>193.9999999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>14.9311475409836</v>
+        <v>23.31428571428572</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -16878,19 +16632,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>207.5262295081968</v>
+        <v>234.7714285714287</v>
       </c>
       <c r="Q3" t="n">
-        <v>292.6409836065574</v>
+        <v>305.9142857142857</v>
       </c>
       <c r="R3" t="n">
-        <v>246.4885245901639</v>
+        <v>247.8857142857143</v>
       </c>
       <c r="S3" t="n">
         <v>186</v>
@@ -16931,7 +16685,7 @@
         <v>431.25</v>
       </c>
       <c r="G4" t="n">
-        <v>45.90819672131147</v>
+        <v>57.08571428571426</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -16943,16 +16697,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>36.51428571428573</v>
       </c>
       <c r="L4" t="n">
-        <v>94.92295081967222</v>
+        <v>134.7428571428571</v>
       </c>
       <c r="M4" t="n">
-        <v>287.9688524590164</v>
+        <v>322.1999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>584.7934426229509</v>
+        <v>600</v>
       </c>
       <c r="O4" t="n">
         <v>600</v>
@@ -17560,7 +17314,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -17579,7 +17333,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -17592,7 +17346,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -17608,7 +17362,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -17620,6 +17374,59 @@
       </c>
       <c r="B9" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet177.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17732,16 +17539,16 @@
         <v>483</v>
       </c>
       <c r="F2" t="n">
-        <v>418.2885245901639</v>
+        <v>419.6857142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>63.6639344262295</v>
+        <v>74.14285714285714</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -17762,13 +17569,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>195.7704918032788</v>
+        <v>223.7142857142858</v>
       </c>
       <c r="Q2" t="n">
-        <v>335.1295081967213</v>
+        <v>349.8</v>
       </c>
       <c r="R2" t="n">
-        <v>271.2213114754098</v>
+        <v>274.7142857142857</v>
       </c>
       <c r="S2" t="n">
         <v>222</v>
@@ -17806,10 +17613,10 @@
         <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>194</v>
+        <v>193.9999999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>14.9311475409836</v>
+        <v>23.31428571428572</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -17830,19 +17637,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>207.5262295081968</v>
+        <v>234.7714285714287</v>
       </c>
       <c r="Q3" t="n">
-        <v>292.6409836065574</v>
+        <v>305.9142857142857</v>
       </c>
       <c r="R3" t="n">
-        <v>246.4885245901639</v>
+        <v>247.8857142857143</v>
       </c>
       <c r="S3" t="n">
         <v>186</v>
@@ -17883,7 +17690,7 @@
         <v>431.25</v>
       </c>
       <c r="G4" t="n">
-        <v>45.90819672131147</v>
+        <v>57.08571428571426</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -17895,16 +17702,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>36.51428571428573</v>
       </c>
       <c r="L4" t="n">
-        <v>94.92295081967222</v>
+        <v>134.7428571428571</v>
       </c>
       <c r="M4" t="n">
-        <v>287.9688524590164</v>
+        <v>322.1999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>584.7934426229509</v>
+        <v>600</v>
       </c>
       <c r="O4" t="n">
         <v>600</v>
@@ -18047,16 +17854,16 @@
         <v>483</v>
       </c>
       <c r="F2" t="n">
-        <v>418.2885245901639</v>
+        <v>419.6857142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>63.6639344262295</v>
+        <v>74.14285714285714</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -18077,13 +17884,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>195.7704918032788</v>
+        <v>223.7142857142858</v>
       </c>
       <c r="Q2" t="n">
-        <v>335.1295081967213</v>
+        <v>349.8</v>
       </c>
       <c r="R2" t="n">
-        <v>271.2213114754098</v>
+        <v>274.7142857142857</v>
       </c>
       <c r="S2" t="n">
         <v>222</v>
@@ -18121,10 +17928,10 @@
         <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>194</v>
+        <v>193.9999999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>14.9311475409836</v>
+        <v>23.31428571428572</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -18145,19 +17952,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>207.5262295081968</v>
+        <v>234.7714285714287</v>
       </c>
       <c r="Q3" t="n">
-        <v>292.6409836065574</v>
+        <v>305.9142857142857</v>
       </c>
       <c r="R3" t="n">
-        <v>246.4885245901639</v>
+        <v>247.8857142857143</v>
       </c>
       <c r="S3" t="n">
         <v>186</v>
@@ -18198,7 +18005,7 @@
         <v>431.25</v>
       </c>
       <c r="G4" t="n">
-        <v>45.90819672131147</v>
+        <v>57.08571428571426</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -18210,16 +18017,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>36.51428571428573</v>
       </c>
       <c r="L4" t="n">
-        <v>94.92295081967222</v>
+        <v>134.7428571428571</v>
       </c>
       <c r="M4" t="n">
-        <v>287.9688524590164</v>
+        <v>322.1999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>584.7934426229509</v>
+        <v>600</v>
       </c>
       <c r="O4" t="n">
         <v>600</v>
@@ -18825,16 +18632,16 @@
         <v>483</v>
       </c>
       <c r="F2" t="n">
-        <v>418.4885245901639</v>
+        <v>419.6857142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>65.1639344262295</v>
+        <v>74.14285714285714</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -18855,13 +18662,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>199.7704918032787</v>
+        <v>223.7142857142858</v>
       </c>
       <c r="Q2" t="n">
-        <v>337.2295081967213</v>
+        <v>349.8</v>
       </c>
       <c r="R2" t="n">
-        <v>271.7213114754098</v>
+        <v>274.7142857142857</v>
       </c>
       <c r="S2" t="n">
         <v>222</v>
@@ -18899,10 +18706,10 @@
         <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>194</v>
+        <v>193.9999999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>16.13114754098362</v>
+        <v>23.31428571428572</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -18923,19 +18730,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>211.4262295081968</v>
+        <v>234.7714285714287</v>
       </c>
       <c r="Q3" t="n">
-        <v>294.5409836065573</v>
+        <v>305.9142857142857</v>
       </c>
       <c r="R3" t="n">
-        <v>246.6885245901639</v>
+        <v>247.8857142857143</v>
       </c>
       <c r="S3" t="n">
         <v>186</v>
@@ -18976,7 +18783,7 @@
         <v>431.25</v>
       </c>
       <c r="G4" t="n">
-        <v>47.50819672131146</v>
+        <v>57.08571428571426</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -18988,46 +18795,46 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>36.51428571428573</v>
       </c>
       <c r="L4" t="n">
-        <v>100.6229508196722</v>
+        <v>124.9999999998999</v>
       </c>
       <c r="M4" t="n">
-        <v>292.8688524590164</v>
+        <v>322.1999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>500</v>
+        <v>499.9999999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>500</v>
+        <v>499.9999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>500</v>
+        <v>499.9999999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>500</v>
+        <v>499.9999999999999</v>
       </c>
       <c r="R4" t="n">
-        <v>500</v>
+        <v>499.9999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>499.9999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>500</v>
+        <v>499.9999999999999</v>
       </c>
       <c r="U4" t="n">
-        <v>500</v>
+        <v>499.9999999999999</v>
       </c>
       <c r="V4" t="n">
-        <v>500</v>
+        <v>499.9999999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>500</v>
+        <v>499.9999999999999</v>
       </c>
       <c r="X4" t="n">
-        <v>500</v>
+        <v>499.9999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -19131,25 +18938,25 @@
         <v>258</v>
       </c>
       <c r="C2" t="n">
-        <v>306.4</v>
+        <v>306.3999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>483</v>
+        <v>482.9999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>483</v>
+        <v>482.9999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>418.4885245901639</v>
+        <v>419.6857142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>65.1639344262295</v>
+        <v>74.14285714285714</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -19161,7 +18968,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.524291969370097e-12</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -19170,13 +18977,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>199.7704918032788</v>
+        <v>223.7142857142858</v>
       </c>
       <c r="Q2" t="n">
-        <v>337.2295081967213</v>
+        <v>349.8</v>
       </c>
       <c r="R2" t="n">
-        <v>271.7213114754098</v>
+        <v>274.7142857142857</v>
       </c>
       <c r="S2" t="n">
         <v>222</v>
@@ -19214,10 +19021,10 @@
         <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>194</v>
+        <v>193.9999999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>16.13114754098362</v>
+        <v>23.31428571428572</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -19238,19 +19045,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>211.4262295081968</v>
+        <v>234.7714285714287</v>
       </c>
       <c r="Q3" t="n">
-        <v>294.5409836065573</v>
+        <v>305.9142857142857</v>
       </c>
       <c r="R3" t="n">
-        <v>246.6885245901639</v>
+        <v>247.8857142857143</v>
       </c>
       <c r="S3" t="n">
         <v>186</v>
@@ -19273,25 +19080,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>483.0000000000001</v>
+        <v>483</v>
       </c>
       <c r="B4" t="n">
         <v>448.5</v>
       </c>
       <c r="C4" t="n">
-        <v>431.25</v>
+        <v>431.2499999999999</v>
       </c>
       <c r="D4" t="n">
         <v>448.5</v>
       </c>
       <c r="E4" t="n">
-        <v>431.25</v>
+        <v>431.2499999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>431.25</v>
+        <v>431.2499999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>47.50819672131146</v>
+        <v>57.08571428571426</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -19303,46 +19110,46 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>36.51428571428573</v>
       </c>
       <c r="L4" t="n">
-        <v>100.6229508196722</v>
+        <v>124.9999999998984</v>
       </c>
       <c r="M4" t="n">
-        <v>292.8688524590164</v>
+        <v>322.1999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="O4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="P4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="Q4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="R4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="T4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="U4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="V4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="W4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="X4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -19446,25 +19253,25 @@
         <v>258</v>
       </c>
       <c r="C2" t="n">
-        <v>306.4</v>
+        <v>306.3999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>483</v>
+        <v>482.9999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>483</v>
+        <v>482.9999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>418.4885245901639</v>
+        <v>419.6857142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>65.1639344262295</v>
+        <v>74.14285714285714</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -19485,13 +19292,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>199.7704918032788</v>
+        <v>223.7142857142858</v>
       </c>
       <c r="Q2" t="n">
-        <v>337.2295081967213</v>
+        <v>349.8</v>
       </c>
       <c r="R2" t="n">
-        <v>271.7213114754098</v>
+        <v>274.7142857142857</v>
       </c>
       <c r="S2" t="n">
         <v>222</v>
@@ -19529,10 +19336,10 @@
         <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>194</v>
+        <v>193.9999999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>16.13114754098362</v>
+        <v>23.31428571428572</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -19553,19 +19360,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>211.4262295081968</v>
+        <v>234.7714285714287</v>
       </c>
       <c r="Q3" t="n">
-        <v>294.5409836065573</v>
+        <v>305.9142857142857</v>
       </c>
       <c r="R3" t="n">
-        <v>246.6885245901639</v>
+        <v>247.8857142857143</v>
       </c>
       <c r="S3" t="n">
         <v>186</v>
@@ -19588,25 +19395,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>483.0000000000001</v>
+        <v>483</v>
       </c>
       <c r="B4" t="n">
         <v>448.5</v>
       </c>
       <c r="C4" t="n">
-        <v>431.25</v>
+        <v>431.2499999999999</v>
       </c>
       <c r="D4" t="n">
         <v>448.5</v>
       </c>
       <c r="E4" t="n">
-        <v>431.25</v>
+        <v>431.2499999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>431.25</v>
+        <v>431.2499999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>47.50819672131146</v>
+        <v>57.08571428571426</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -19618,46 +19425,46 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>36.51428571428573</v>
       </c>
       <c r="L4" t="n">
-        <v>100.6229508196722</v>
+        <v>124.9999999999001</v>
       </c>
       <c r="M4" t="n">
-        <v>292.8688524590164</v>
+        <v>322.1999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="O4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="P4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="Q4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="R4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="T4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="U4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="V4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="W4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="X4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -19761,25 +19568,25 @@
         <v>258</v>
       </c>
       <c r="C2" t="n">
-        <v>306.4</v>
+        <v>306.3999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>483</v>
+        <v>482.9999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>483</v>
+        <v>482.9999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>418.4885245901639</v>
+        <v>419.6857142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>65.1639344262295</v>
+        <v>74.14285714285714</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -19800,13 +19607,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>199.7704918032788</v>
+        <v>223.7142857142858</v>
       </c>
       <c r="Q2" t="n">
-        <v>337.2295081967213</v>
+        <v>349.8</v>
       </c>
       <c r="R2" t="n">
-        <v>271.7213114754098</v>
+        <v>274.7142857142857</v>
       </c>
       <c r="S2" t="n">
         <v>222</v>
@@ -19844,10 +19651,10 @@
         <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>194</v>
+        <v>193.9999999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>16.13114754098362</v>
+        <v>23.31428571428572</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -19868,19 +19675,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>211.4262295081968</v>
+        <v>234.7714285714287</v>
       </c>
       <c r="Q3" t="n">
-        <v>294.5409836065573</v>
+        <v>305.9142857142857</v>
       </c>
       <c r="R3" t="n">
-        <v>246.6885245901639</v>
+        <v>247.8857142857143</v>
       </c>
       <c r="S3" t="n">
         <v>186</v>
@@ -19903,25 +19710,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>483.0000000000001</v>
+        <v>483</v>
       </c>
       <c r="B4" t="n">
         <v>448.5</v>
       </c>
       <c r="C4" t="n">
-        <v>431.25</v>
+        <v>431.2499999999999</v>
       </c>
       <c r="D4" t="n">
         <v>448.5</v>
       </c>
       <c r="E4" t="n">
-        <v>431.25</v>
+        <v>431.2499999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>431.25</v>
+        <v>431.2499999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>47.50819672131146</v>
+        <v>57.08571428571426</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -19930,49 +19737,49 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>36.51428571428573</v>
       </c>
       <c r="L4" t="n">
-        <v>100.6229508196722</v>
+        <v>124.9999999999055</v>
       </c>
       <c r="M4" t="n">
-        <v>292.8688524590164</v>
+        <v>322.1999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="O4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="P4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="Q4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="R4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="T4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="U4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="V4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="W4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="X4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -20076,25 +19883,25 @@
         <v>258</v>
       </c>
       <c r="C2" t="n">
-        <v>306.4</v>
+        <v>306.3999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>483</v>
+        <v>482.9999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>483</v>
+        <v>482.9999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>418.4885245901639</v>
+        <v>419.6857142857143</v>
       </c>
       <c r="G2" t="n">
-        <v>65.1639344262295</v>
+        <v>74.14285714285714</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -20115,13 +19922,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>199.7704918032788</v>
+        <v>223.7142857142858</v>
       </c>
       <c r="Q2" t="n">
-        <v>337.2295081967213</v>
+        <v>349.8</v>
       </c>
       <c r="R2" t="n">
-        <v>271.7213114754098</v>
+        <v>274.7142857142857</v>
       </c>
       <c r="S2" t="n">
         <v>222</v>
@@ -20159,10 +19966,10 @@
         <v>150</v>
       </c>
       <c r="F3" t="n">
-        <v>194</v>
+        <v>193.9999999999997</v>
       </c>
       <c r="G3" t="n">
-        <v>16.13114754098362</v>
+        <v>23.31428571428572</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -20183,19 +19990,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>211.4262295081968</v>
+        <v>234.7714285714287</v>
       </c>
       <c r="Q3" t="n">
-        <v>294.5409836065573</v>
+        <v>305.9142857142857</v>
       </c>
       <c r="R3" t="n">
-        <v>246.6885245901639</v>
+        <v>247.8857142857143</v>
       </c>
       <c r="S3" t="n">
         <v>186</v>
@@ -20218,25 +20025,25 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>483.0000000000001</v>
+        <v>483</v>
       </c>
       <c r="B4" t="n">
         <v>448.5</v>
       </c>
       <c r="C4" t="n">
-        <v>431.25</v>
+        <v>431.2499999999999</v>
       </c>
       <c r="D4" t="n">
         <v>448.5</v>
       </c>
       <c r="E4" t="n">
-        <v>431.25</v>
+        <v>431.2499999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>431.25</v>
+        <v>431.2499999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>47.50819672131146</v>
+        <v>57.08571428571426</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -20248,46 +20055,46 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>36.51428571428573</v>
       </c>
       <c r="L4" t="n">
-        <v>100.6229508196722</v>
+        <v>134.7428571428571</v>
       </c>
       <c r="M4" t="n">
-        <v>292.8688524590164</v>
+        <v>322.1999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="O4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="P4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="Q4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="R4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="S4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="T4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="U4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="V4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="W4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="X4" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -20400,43 +20207,43 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.51147540983607</v>
+        <v>23.57142857142857</v>
       </c>
       <c r="G2" t="n">
-        <v>176.3360655737705</v>
+        <v>176.7857142857143</v>
       </c>
       <c r="H2" t="n">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I2" t="n">
-        <v>342</v>
+        <v>336.0000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K2" t="n">
-        <v>543.8823529411765</v>
+        <v>540</v>
       </c>
       <c r="L2" t="n">
-        <v>690</v>
+        <v>683.9999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="N2" t="n">
-        <v>775.8786885245902</v>
+        <v>777.8571428571429</v>
       </c>
       <c r="O2" t="n">
-        <v>646.5655737704918</v>
+        <v>648.2142857142857</v>
       </c>
       <c r="P2" t="n">
-        <v>470.2295081967213</v>
+        <v>471.4285714285714</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.8704918032787</v>
+        <v>247.5</v>
       </c>
       <c r="R2" t="n">
-        <v>58.77868852459017</v>
+        <v>58.92857142857143</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -20477,40 +20284,40 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>141.0688524590164</v>
+        <v>141.4285714285714</v>
       </c>
       <c r="H3" t="n">
         <v>258</v>
       </c>
       <c r="I3" t="n">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="J3" t="n">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K3" t="n">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L3" t="n">
-        <v>513.8823529411765</v>
+        <v>510</v>
       </c>
       <c r="M3" t="n">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="N3" t="n">
-        <v>678</v>
+        <v>672.0000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>658.32131147541</v>
+        <v>660</v>
       </c>
       <c r="P3" t="n">
-        <v>458.4737704918033</v>
+        <v>459.6428571428571</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.3590163934426</v>
+        <v>223.9285714285714</v>
       </c>
       <c r="R3" t="n">
-        <v>23.51147540983607</v>
+        <v>23.57142857142857</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -20551,34 +20358,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>188.0918032786885</v>
+        <v>188.5714285714286</v>
       </c>
       <c r="H4" t="n">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I4" t="n">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="J4" t="n">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="K4" t="n">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="L4" t="n">
-        <v>670.0770491803278</v>
+        <v>671.7857142857141</v>
       </c>
       <c r="M4" t="n">
-        <v>576.0311475409836</v>
+        <v>577.4999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>423.2065573770492</v>
+        <v>424.2857142857142</v>
       </c>
       <c r="O4" t="n">
-        <v>223.3590163934426</v>
+        <v>223.9285714285714</v>
       </c>
       <c r="P4" t="n">
-        <v>35.2672131147541</v>
+        <v>35.35714285714285</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -20715,43 +20522,43 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.51147540983607</v>
+        <v>24.18181818181818</v>
       </c>
       <c r="G2" t="n">
-        <v>176.3360655737705</v>
+        <v>181.3636363636363</v>
       </c>
       <c r="H2" t="n">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I2" t="n">
-        <v>342</v>
+        <v>336.0000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K2" t="n">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="L2" t="n">
-        <v>687.8823529411764</v>
+        <v>683.9999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="N2" t="n">
-        <v>775.8786885245902</v>
+        <v>798</v>
       </c>
       <c r="O2" t="n">
-        <v>646.5655737704918</v>
+        <v>665</v>
       </c>
       <c r="P2" t="n">
-        <v>470.2295081967213</v>
+        <v>483.6363636363636</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.8704918032787</v>
+        <v>253.9090909090909</v>
       </c>
       <c r="R2" t="n">
-        <v>58.77868852459017</v>
+        <v>60.45454545454545</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -20792,40 +20599,40 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>141.0688524590164</v>
+        <v>145.0909090909091</v>
       </c>
       <c r="H3" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="I3" t="n">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="J3" t="n">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K3" t="n">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L3" t="n">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="M3" t="n">
-        <v>579.8823529411765</v>
+        <v>576</v>
       </c>
       <c r="N3" t="n">
-        <v>672</v>
+        <v>672.0000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>658.32131147541</v>
+        <v>660</v>
       </c>
       <c r="P3" t="n">
-        <v>458.4737704918033</v>
+        <v>471.5454545454545</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.3590163934426</v>
+        <v>229.7272727272727</v>
       </c>
       <c r="R3" t="n">
-        <v>23.51147540983607</v>
+        <v>24.18181818181818</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -20866,34 +20673,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>188.0918032786885</v>
+        <v>193.4545454545454</v>
       </c>
       <c r="H4" t="n">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="I4" t="n">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="J4" t="n">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="K4" t="n">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="L4" t="n">
-        <v>670.0770491803278</v>
+        <v>689.1818181818181</v>
       </c>
       <c r="M4" t="n">
-        <v>576.0311475409836</v>
+        <v>592.4545454545454</v>
       </c>
       <c r="N4" t="n">
-        <v>423.2065573770492</v>
+        <v>435.2727272727273</v>
       </c>
       <c r="O4" t="n">
-        <v>223.3590163934426</v>
+        <v>229.7272727272727</v>
       </c>
       <c r="P4" t="n">
-        <v>35.2672131147541</v>
+        <v>36.27272727272727</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -21030,16 +20837,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.51147540983607</v>
+        <v>24.18181818181818</v>
       </c>
       <c r="G2" t="n">
-        <v>176.3360655737705</v>
+        <v>181.3636363636363</v>
       </c>
       <c r="H2" t="n">
         <v>288</v>
       </c>
       <c r="I2" t="n">
-        <v>336</v>
+        <v>336.0000000000001</v>
       </c>
       <c r="J2" t="n">
         <v>444</v>
@@ -21048,25 +20855,25 @@
         <v>540</v>
       </c>
       <c r="L2" t="n">
-        <v>684</v>
+        <v>683.9999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>726</v>
       </c>
       <c r="N2" t="n">
-        <v>775.8786885245902</v>
+        <v>798</v>
       </c>
       <c r="O2" t="n">
-        <v>646.5655737704918</v>
+        <v>665</v>
       </c>
       <c r="P2" t="n">
-        <v>470.2295081967213</v>
+        <v>483.6363636363636</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.8704918032787</v>
+        <v>253.9090909090909</v>
       </c>
       <c r="R2" t="n">
-        <v>58.77868852459017</v>
+        <v>60.45454545454545</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -21107,7 +20914,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>141.0688524590164</v>
+        <v>145.0909090909091</v>
       </c>
       <c r="H3" t="n">
         <v>258</v>
@@ -21128,19 +20935,19 @@
         <v>576</v>
       </c>
       <c r="N3" t="n">
-        <v>672</v>
+        <v>672.0000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>658.32131147541</v>
+        <v>660</v>
       </c>
       <c r="P3" t="n">
-        <v>458.4737704918033</v>
+        <v>471.5454545454545</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.3590163934426</v>
+        <v>229.7272727272727</v>
       </c>
       <c r="R3" t="n">
-        <v>23.51147540983607</v>
+        <v>24.18181818181818</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -21181,7 +20988,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>188.0918032786885</v>
+        <v>193.4545454545454</v>
       </c>
       <c r="H4" t="n">
         <v>387</v>
@@ -21196,19 +21003,19 @@
         <v>711</v>
       </c>
       <c r="L4" t="n">
-        <v>670.0770491803278</v>
+        <v>689.1818181818181</v>
       </c>
       <c r="M4" t="n">
-        <v>576.0311475409836</v>
+        <v>592.4545454545454</v>
       </c>
       <c r="N4" t="n">
-        <v>423.2065573770492</v>
+        <v>435.2727272727273</v>
       </c>
       <c r="O4" t="n">
-        <v>223.3590163934426</v>
+        <v>229.7272727272727</v>
       </c>
       <c r="P4" t="n">
-        <v>35.2672131147541</v>
+        <v>36.27272727272727</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -21345,16 +21152,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.51147540983607</v>
+        <v>24.18181818181818</v>
       </c>
       <c r="G2" t="n">
-        <v>176.3360655737705</v>
+        <v>181.3636363636363</v>
       </c>
       <c r="H2" t="n">
         <v>288</v>
       </c>
       <c r="I2" t="n">
-        <v>336</v>
+        <v>336.0000000000001</v>
       </c>
       <c r="J2" t="n">
         <v>444</v>
@@ -21363,25 +21170,25 @@
         <v>540</v>
       </c>
       <c r="L2" t="n">
-        <v>684</v>
+        <v>683.9999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>726</v>
       </c>
       <c r="N2" t="n">
-        <v>775.8786885245902</v>
+        <v>798</v>
       </c>
       <c r="O2" t="n">
-        <v>646.5655737704918</v>
+        <v>665</v>
       </c>
       <c r="P2" t="n">
-        <v>470.2295081967213</v>
+        <v>483.6363636363636</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.8704918032787</v>
+        <v>253.9090909090909</v>
       </c>
       <c r="R2" t="n">
-        <v>58.77868852459017</v>
+        <v>60.45454545454545</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -21422,7 +21229,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>141.0688524590164</v>
+        <v>145.0909090909091</v>
       </c>
       <c r="H3" t="n">
         <v>258</v>
@@ -21443,19 +21250,19 @@
         <v>576</v>
       </c>
       <c r="N3" t="n">
-        <v>672</v>
+        <v>672.0000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>658.32131147541</v>
+        <v>660</v>
       </c>
       <c r="P3" t="n">
-        <v>458.4737704918033</v>
+        <v>471.5454545454545</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.3590163934426</v>
+        <v>229.7272727272727</v>
       </c>
       <c r="R3" t="n">
-        <v>23.51147540983607</v>
+        <v>24.18181818181818</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -21496,7 +21303,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>188.0918032786885</v>
+        <v>193.4545454545454</v>
       </c>
       <c r="H4" t="n">
         <v>387</v>
@@ -21511,19 +21318,19 @@
         <v>711</v>
       </c>
       <c r="L4" t="n">
-        <v>670.0770491803278</v>
+        <v>689.1818181818181</v>
       </c>
       <c r="M4" t="n">
-        <v>576.0311475409836</v>
+        <v>592.4545454545454</v>
       </c>
       <c r="N4" t="n">
-        <v>423.2065573770492</v>
+        <v>435.2727272727273</v>
       </c>
       <c r="O4" t="n">
-        <v>223.3590163934426</v>
+        <v>229.7272727272727</v>
       </c>
       <c r="P4" t="n">
-        <v>35.2672131147541</v>
+        <v>36.27272727272727</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -21660,16 +21467,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.51147540983607</v>
+        <v>24.18181818181818</v>
       </c>
       <c r="G2" t="n">
-        <v>176.3360655737705</v>
+        <v>181.3636363636363</v>
       </c>
       <c r="H2" t="n">
         <v>288</v>
       </c>
       <c r="I2" t="n">
-        <v>336</v>
+        <v>336.0000000000001</v>
       </c>
       <c r="J2" t="n">
         <v>444</v>
@@ -21678,25 +21485,25 @@
         <v>540</v>
       </c>
       <c r="L2" t="n">
-        <v>684</v>
+        <v>683.9999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>726</v>
       </c>
       <c r="N2" t="n">
-        <v>775.8786885245902</v>
+        <v>798</v>
       </c>
       <c r="O2" t="n">
-        <v>646.5655737704918</v>
+        <v>665</v>
       </c>
       <c r="P2" t="n">
-        <v>470.2295081967213</v>
+        <v>483.6363636363636</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.8704918032787</v>
+        <v>253.9090909090909</v>
       </c>
       <c r="R2" t="n">
-        <v>58.77868852459017</v>
+        <v>60.45454545454545</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -21737,7 +21544,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>141.0688524590164</v>
+        <v>145.0909090909091</v>
       </c>
       <c r="H3" t="n">
         <v>258</v>
@@ -21758,19 +21565,19 @@
         <v>576</v>
       </c>
       <c r="N3" t="n">
-        <v>672</v>
+        <v>672.0000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>658.32131147541</v>
+        <v>660</v>
       </c>
       <c r="P3" t="n">
-        <v>458.4737704918033</v>
+        <v>471.5454545454545</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.3590163934426</v>
+        <v>229.7272727272727</v>
       </c>
       <c r="R3" t="n">
-        <v>23.51147540983607</v>
+        <v>24.18181818181818</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -21811,7 +21618,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>188.0918032786885</v>
+        <v>193.4545454545454</v>
       </c>
       <c r="H4" t="n">
         <v>387</v>
@@ -21826,19 +21633,19 @@
         <v>711</v>
       </c>
       <c r="L4" t="n">
-        <v>670.0770491803278</v>
+        <v>689.1818181818181</v>
       </c>
       <c r="M4" t="n">
-        <v>576.0311475409836</v>
+        <v>592.4545454545454</v>
       </c>
       <c r="N4" t="n">
-        <v>423.2065573770492</v>
+        <v>435.2727272727273</v>
       </c>
       <c r="O4" t="n">
-        <v>223.3590163934426</v>
+        <v>229.7272727272727</v>
       </c>
       <c r="P4" t="n">
-        <v>35.2672131147541</v>
+        <v>36.27272727272727</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -22558,16 +22365,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.51147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="G2" t="n">
-        <v>176.3360655737705</v>
+        <v>165.8571428571429</v>
       </c>
       <c r="H2" t="n">
         <v>288</v>
       </c>
       <c r="I2" t="n">
-        <v>336</v>
+        <v>336.0000000000001</v>
       </c>
       <c r="J2" t="n">
         <v>444</v>
@@ -22576,25 +22383,25 @@
         <v>540</v>
       </c>
       <c r="L2" t="n">
-        <v>684</v>
+        <v>683.9999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>726</v>
       </c>
       <c r="N2" t="n">
-        <v>775.8786885245902</v>
+        <v>729.7714285714286</v>
       </c>
       <c r="O2" t="n">
-        <v>646.5655737704918</v>
+        <v>608.1428571428572</v>
       </c>
       <c r="P2" t="n">
-        <v>470.2295081967213</v>
+        <v>442.2857142857143</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.8704918032787</v>
+        <v>232.2</v>
       </c>
       <c r="R2" t="n">
-        <v>58.77868852459017</v>
+        <v>55.28571428571429</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22635,7 +22442,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>141.0688524590164</v>
+        <v>132.6857142857143</v>
       </c>
       <c r="H3" t="n">
         <v>258</v>
@@ -22656,19 +22463,19 @@
         <v>576</v>
       </c>
       <c r="N3" t="n">
-        <v>672</v>
+        <v>672.0000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>658.32131147541</v>
+        <v>619.2</v>
       </c>
       <c r="P3" t="n">
-        <v>458.4737704918033</v>
+        <v>431.2285714285715</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.3590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="R3" t="n">
-        <v>23.51147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22709,7 +22516,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>188.0918032786885</v>
+        <v>176.9142857142857</v>
       </c>
       <c r="H4" t="n">
         <v>387</v>
@@ -22721,22 +22528,22 @@
         <v>576</v>
       </c>
       <c r="K4" t="n">
-        <v>711</v>
+        <v>674.4857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>670.0770491803278</v>
+        <v>630.2571428571429</v>
       </c>
       <c r="M4" t="n">
-        <v>576.0311475409836</v>
+        <v>541.8000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>423.2065573770492</v>
+        <v>398.0571428571429</v>
       </c>
       <c r="O4" t="n">
-        <v>223.3590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="P4" t="n">
-        <v>35.2672131147541</v>
+        <v>33.17142857142857</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -22873,16 +22680,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.51147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="G2" t="n">
-        <v>176.3360655737705</v>
+        <v>165.8571428571429</v>
       </c>
       <c r="H2" t="n">
         <v>288</v>
       </c>
       <c r="I2" t="n">
-        <v>336</v>
+        <v>336.0000000000001</v>
       </c>
       <c r="J2" t="n">
         <v>444</v>
@@ -22891,25 +22698,25 @@
         <v>540</v>
       </c>
       <c r="L2" t="n">
-        <v>684</v>
+        <v>683.9999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>726</v>
       </c>
       <c r="N2" t="n">
-        <v>775.8786885245902</v>
+        <v>729.7714285714286</v>
       </c>
       <c r="O2" t="n">
-        <v>646.5655737704918</v>
+        <v>608.1428571428572</v>
       </c>
       <c r="P2" t="n">
-        <v>470.2295081967213</v>
+        <v>442.2857142857143</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.8704918032787</v>
+        <v>232.2</v>
       </c>
       <c r="R2" t="n">
-        <v>58.77868852459017</v>
+        <v>55.28571428571429</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22950,7 +22757,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>141.0688524590164</v>
+        <v>132.6857142857143</v>
       </c>
       <c r="H3" t="n">
         <v>258</v>
@@ -22971,19 +22778,19 @@
         <v>576</v>
       </c>
       <c r="N3" t="n">
-        <v>672</v>
+        <v>672.0000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>658.32131147541</v>
+        <v>619.2</v>
       </c>
       <c r="P3" t="n">
-        <v>458.4737704918033</v>
+        <v>431.2285714285715</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.3590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="R3" t="n">
-        <v>23.51147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23024,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>188.0918032786885</v>
+        <v>176.9142857142857</v>
       </c>
       <c r="H4" t="n">
         <v>387</v>
@@ -23036,22 +22843,22 @@
         <v>576</v>
       </c>
       <c r="K4" t="n">
-        <v>711</v>
+        <v>674.4857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>670.0770491803278</v>
+        <v>630.2571428571429</v>
       </c>
       <c r="M4" t="n">
-        <v>576.0311475409836</v>
+        <v>541.8000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>423.2065573770492</v>
+        <v>398.0571428571429</v>
       </c>
       <c r="O4" t="n">
-        <v>223.3590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="P4" t="n">
-        <v>35.2672131147541</v>
+        <v>33.17142857142857</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -23188,16 +22995,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.51147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="G2" t="n">
-        <v>176.3360655737705</v>
+        <v>165.8571428571429</v>
       </c>
       <c r="H2" t="n">
         <v>288</v>
       </c>
       <c r="I2" t="n">
-        <v>336</v>
+        <v>336.0000000000001</v>
       </c>
       <c r="J2" t="n">
         <v>444</v>
@@ -23206,25 +23013,25 @@
         <v>540</v>
       </c>
       <c r="L2" t="n">
-        <v>684</v>
+        <v>683.9999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>726</v>
       </c>
       <c r="N2" t="n">
-        <v>775.8786885245902</v>
+        <v>729.7714285714286</v>
       </c>
       <c r="O2" t="n">
-        <v>646.5655737704918</v>
+        <v>608.1428571428572</v>
       </c>
       <c r="P2" t="n">
-        <v>470.2295081967213</v>
+        <v>442.2857142857143</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.8704918032787</v>
+        <v>232.2</v>
       </c>
       <c r="R2" t="n">
-        <v>58.77868852459017</v>
+        <v>55.28571428571429</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -23265,7 +23072,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>141.0688524590164</v>
+        <v>132.6857142857143</v>
       </c>
       <c r="H3" t="n">
         <v>258</v>
@@ -23286,19 +23093,19 @@
         <v>576</v>
       </c>
       <c r="N3" t="n">
-        <v>672</v>
+        <v>672.0000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>658.32131147541</v>
+        <v>619.2</v>
       </c>
       <c r="P3" t="n">
-        <v>458.4737704918033</v>
+        <v>431.2285714285715</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.3590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="R3" t="n">
-        <v>23.51147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23339,7 +23146,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>188.0918032786885</v>
+        <v>176.9142857142857</v>
       </c>
       <c r="H4" t="n">
         <v>387</v>
@@ -23351,22 +23158,22 @@
         <v>576</v>
       </c>
       <c r="K4" t="n">
-        <v>711</v>
+        <v>674.4857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>670.0770491803278</v>
+        <v>630.2571428571429</v>
       </c>
       <c r="M4" t="n">
-        <v>576.0311475409836</v>
+        <v>541.8000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>423.2065573770492</v>
+        <v>398.0571428571429</v>
       </c>
       <c r="O4" t="n">
-        <v>223.3590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="P4" t="n">
-        <v>35.2672131147541</v>
+        <v>33.17142857142857</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -23503,16 +23310,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.51147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="G2" t="n">
-        <v>176.3360655737705</v>
+        <v>165.8571428571429</v>
       </c>
       <c r="H2" t="n">
         <v>288</v>
       </c>
       <c r="I2" t="n">
-        <v>336</v>
+        <v>336.0000000000001</v>
       </c>
       <c r="J2" t="n">
         <v>444</v>
@@ -23521,25 +23328,25 @@
         <v>540</v>
       </c>
       <c r="L2" t="n">
-        <v>684</v>
+        <v>683.9999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>726</v>
       </c>
       <c r="N2" t="n">
-        <v>775.8786885245902</v>
+        <v>729.7714285714286</v>
       </c>
       <c r="O2" t="n">
-        <v>646.5655737704918</v>
+        <v>608.1428571428572</v>
       </c>
       <c r="P2" t="n">
-        <v>470.2295081967213</v>
+        <v>442.2857142857143</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.8704918032787</v>
+        <v>232.2</v>
       </c>
       <c r="R2" t="n">
-        <v>58.77868852459017</v>
+        <v>55.28571428571429</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -23580,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>141.0688524590164</v>
+        <v>132.6857142857143</v>
       </c>
       <c r="H3" t="n">
         <v>258</v>
@@ -23601,19 +23408,19 @@
         <v>576</v>
       </c>
       <c r="N3" t="n">
-        <v>672</v>
+        <v>672.0000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>658.32131147541</v>
+        <v>619.2</v>
       </c>
       <c r="P3" t="n">
-        <v>458.4737704918033</v>
+        <v>431.2285714285715</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.3590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="R3" t="n">
-        <v>23.51147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23654,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>188.0918032786885</v>
+        <v>176.9142857142857</v>
       </c>
       <c r="H4" t="n">
         <v>387</v>
@@ -23666,22 +23473,22 @@
         <v>576</v>
       </c>
       <c r="K4" t="n">
-        <v>711</v>
+        <v>674.4857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>670.0770491803278</v>
+        <v>630.2571428571429</v>
       </c>
       <c r="M4" t="n">
-        <v>576.0311475409836</v>
+        <v>541.8000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>423.2065573770492</v>
+        <v>398.0571428571429</v>
       </c>
       <c r="O4" t="n">
-        <v>223.3590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="P4" t="n">
-        <v>35.2672131147541</v>
+        <v>33.17142857142857</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -23818,16 +23625,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.51147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="G2" t="n">
-        <v>176.3360655737705</v>
+        <v>165.8571428571429</v>
       </c>
       <c r="H2" t="n">
         <v>288</v>
       </c>
       <c r="I2" t="n">
-        <v>336</v>
+        <v>336.0000000000001</v>
       </c>
       <c r="J2" t="n">
         <v>444</v>
@@ -23836,25 +23643,25 @@
         <v>540</v>
       </c>
       <c r="L2" t="n">
-        <v>684</v>
+        <v>683.9999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>726</v>
       </c>
       <c r="N2" t="n">
-        <v>775.8786885245902</v>
+        <v>729.7714285714286</v>
       </c>
       <c r="O2" t="n">
-        <v>646.5655737704918</v>
+        <v>608.1428571428572</v>
       </c>
       <c r="P2" t="n">
-        <v>470.2295081967213</v>
+        <v>442.2857142857143</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.8704918032787</v>
+        <v>232.2</v>
       </c>
       <c r="R2" t="n">
-        <v>58.77868852459017</v>
+        <v>55.28571428571429</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -23895,7 +23702,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>141.0688524590164</v>
+        <v>132.6857142857143</v>
       </c>
       <c r="H3" t="n">
         <v>258</v>
@@ -23916,19 +23723,19 @@
         <v>576</v>
       </c>
       <c r="N3" t="n">
-        <v>672</v>
+        <v>672.0000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>658.32131147541</v>
+        <v>619.2</v>
       </c>
       <c r="P3" t="n">
-        <v>458.4737704918033</v>
+        <v>431.2285714285715</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.3590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="R3" t="n">
-        <v>23.51147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23969,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>188.0918032786885</v>
+        <v>176.9142857142857</v>
       </c>
       <c r="H4" t="n">
         <v>387</v>
@@ -23981,22 +23788,22 @@
         <v>576</v>
       </c>
       <c r="K4" t="n">
-        <v>711</v>
+        <v>674.4857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>670.0770491803278</v>
+        <v>630.2571428571429</v>
       </c>
       <c r="M4" t="n">
-        <v>576.0311475409836</v>
+        <v>541.8000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>423.2065573770492</v>
+        <v>398.0571428571429</v>
       </c>
       <c r="O4" t="n">
-        <v>223.3590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="P4" t="n">
-        <v>35.2672131147541</v>
+        <v>33.17142857142857</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -24133,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.31147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="G2" t="n">
-        <v>174.8360655737705</v>
+        <v>165.8571428571429</v>
       </c>
       <c r="H2" t="n">
         <v>288</v>
       </c>
       <c r="I2" t="n">
-        <v>336</v>
+        <v>336.0000000000001</v>
       </c>
       <c r="J2" t="n">
         <v>444</v>
@@ -24151,25 +23958,25 @@
         <v>540</v>
       </c>
       <c r="L2" t="n">
-        <v>684</v>
+        <v>683.9999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>726</v>
       </c>
       <c r="N2" t="n">
-        <v>769.2786885245903</v>
+        <v>729.7714285714286</v>
       </c>
       <c r="O2" t="n">
-        <v>641.0655737704919</v>
+        <v>608.1428571428572</v>
       </c>
       <c r="P2" t="n">
-        <v>466.2295081967214</v>
+        <v>442.2857142857143</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.7704918032787</v>
+        <v>232.2</v>
       </c>
       <c r="R2" t="n">
-        <v>58.27868852459017</v>
+        <v>55.28571428571429</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -24210,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>139.8688524590164</v>
+        <v>132.6857142857143</v>
       </c>
       <c r="H3" t="n">
         <v>258</v>
@@ -24231,19 +24038,19 @@
         <v>576</v>
       </c>
       <c r="N3" t="n">
-        <v>672</v>
+        <v>672.0000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>652.7213114754099</v>
+        <v>619.2</v>
       </c>
       <c r="P3" t="n">
-        <v>454.5737704918033</v>
+        <v>431.2285714285715</v>
       </c>
       <c r="Q3" t="n">
-        <v>221.4590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="R3" t="n">
-        <v>23.31147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -24284,7 +24091,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>186.4918032786885</v>
+        <v>176.9142857142857</v>
       </c>
       <c r="H4" t="n">
         <v>387</v>
@@ -24296,22 +24103,22 @@
         <v>576</v>
       </c>
       <c r="K4" t="n">
-        <v>711</v>
+        <v>674.4857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>664.3770491803278</v>
+        <v>630.2571428571429</v>
       </c>
       <c r="M4" t="n">
-        <v>571.1311475409836</v>
+        <v>541.8000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>419.6065573770492</v>
+        <v>398.0571428571429</v>
       </c>
       <c r="O4" t="n">
-        <v>221.4590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="P4" t="n">
-        <v>34.9672131147541</v>
+        <v>33.17142857142857</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -24448,16 +24255,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.31147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="G2" t="n">
-        <v>174.8360655737705</v>
+        <v>165.8571428571429</v>
       </c>
       <c r="H2" t="n">
         <v>288</v>
       </c>
       <c r="I2" t="n">
-        <v>336</v>
+        <v>336.0000000000001</v>
       </c>
       <c r="J2" t="n">
         <v>444</v>
@@ -24466,25 +24273,25 @@
         <v>540</v>
       </c>
       <c r="L2" t="n">
-        <v>684</v>
+        <v>683.9999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>726</v>
+        <v>725.9999999999965</v>
       </c>
       <c r="N2" t="n">
-        <v>769.2786885245903</v>
+        <v>729.7714285714286</v>
       </c>
       <c r="O2" t="n">
-        <v>641.0655737704918</v>
+        <v>608.1428571428572</v>
       </c>
       <c r="P2" t="n">
-        <v>466.2295081967213</v>
+        <v>442.2857142857143</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.7704918032787</v>
+        <v>232.2</v>
       </c>
       <c r="R2" t="n">
-        <v>58.27868852459017</v>
+        <v>55.28571428571429</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -24525,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>139.8688524590164</v>
+        <v>132.6857142857143</v>
       </c>
       <c r="H3" t="n">
         <v>258</v>
@@ -24546,19 +24353,19 @@
         <v>576</v>
       </c>
       <c r="N3" t="n">
-        <v>672</v>
+        <v>672.0000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>652.7213114754099</v>
+        <v>619.2</v>
       </c>
       <c r="P3" t="n">
-        <v>454.5737704918033</v>
+        <v>431.2285714285715</v>
       </c>
       <c r="Q3" t="n">
-        <v>221.4590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="R3" t="n">
-        <v>23.31147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -24599,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>186.4918032786885</v>
+        <v>176.9142857142857</v>
       </c>
       <c r="H4" t="n">
         <v>387</v>
@@ -24611,22 +24418,22 @@
         <v>576</v>
       </c>
       <c r="K4" t="n">
-        <v>711</v>
+        <v>674.4857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>664.3770491803278</v>
+        <v>630.2571428571429</v>
       </c>
       <c r="M4" t="n">
-        <v>571.1311475409836</v>
+        <v>541.8000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>419.6065573770492</v>
+        <v>398.0571428571429</v>
       </c>
       <c r="O4" t="n">
-        <v>221.4590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="P4" t="n">
-        <v>34.9672131147541</v>
+        <v>33.17142857142857</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -24763,16 +24570,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.31147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="G2" t="n">
-        <v>174.8360655737705</v>
+        <v>165.8571428571429</v>
       </c>
       <c r="H2" t="n">
         <v>288</v>
       </c>
       <c r="I2" t="n">
-        <v>336</v>
+        <v>336.0000000000001</v>
       </c>
       <c r="J2" t="n">
         <v>444</v>
@@ -24781,25 +24588,25 @@
         <v>540</v>
       </c>
       <c r="L2" t="n">
-        <v>684</v>
+        <v>683.9999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>726</v>
       </c>
       <c r="N2" t="n">
-        <v>769.2786885245903</v>
+        <v>729.7714285714286</v>
       </c>
       <c r="O2" t="n">
-        <v>641.0655737704918</v>
+        <v>608.1428571428572</v>
       </c>
       <c r="P2" t="n">
-        <v>466.2295081967213</v>
+        <v>442.2857142857143</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.7704918032787</v>
+        <v>232.2</v>
       </c>
       <c r="R2" t="n">
-        <v>58.27868852459017</v>
+        <v>55.28571428571429</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -24840,7 +24647,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>139.8688524590164</v>
+        <v>132.6857142857143</v>
       </c>
       <c r="H3" t="n">
         <v>258</v>
@@ -24861,19 +24668,19 @@
         <v>576</v>
       </c>
       <c r="N3" t="n">
-        <v>672</v>
+        <v>672.0000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>652.7213114754099</v>
+        <v>619.2</v>
       </c>
       <c r="P3" t="n">
-        <v>454.5737704918033</v>
+        <v>431.2285714285715</v>
       </c>
       <c r="Q3" t="n">
-        <v>221.4590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="R3" t="n">
-        <v>23.31147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -24914,7 +24721,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>186.4918032786885</v>
+        <v>176.9142857142857</v>
       </c>
       <c r="H4" t="n">
         <v>387</v>
@@ -24926,22 +24733,22 @@
         <v>576</v>
       </c>
       <c r="K4" t="n">
-        <v>711</v>
+        <v>674.4857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>664.3770491803278</v>
+        <v>630.2571428571429</v>
       </c>
       <c r="M4" t="n">
-        <v>571.1311475409836</v>
+        <v>541.8000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>419.6065573770492</v>
+        <v>398.0571428571429</v>
       </c>
       <c r="O4" t="n">
-        <v>221.4590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="P4" t="n">
-        <v>34.9672131147541</v>
+        <v>33.17142857142857</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -25078,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.31147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="G2" t="n">
-        <v>174.8360655737705</v>
+        <v>165.8571428571429</v>
       </c>
       <c r="H2" t="n">
         <v>288</v>
       </c>
       <c r="I2" t="n">
-        <v>336</v>
+        <v>336.0000000000001</v>
       </c>
       <c r="J2" t="n">
         <v>444</v>
@@ -25096,25 +24903,25 @@
         <v>540</v>
       </c>
       <c r="L2" t="n">
-        <v>684</v>
+        <v>683.9999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>726</v>
+        <v>726.0000000000166</v>
       </c>
       <c r="N2" t="n">
-        <v>769.2786885245903</v>
+        <v>729.7714285714286</v>
       </c>
       <c r="O2" t="n">
-        <v>641.0655737704918</v>
+        <v>608.1428571428572</v>
       </c>
       <c r="P2" t="n">
-        <v>466.2295081967213</v>
+        <v>442.2857142857143</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.7704918032787</v>
+        <v>232.2</v>
       </c>
       <c r="R2" t="n">
-        <v>58.27868852459017</v>
+        <v>55.28571428571429</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -25155,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>139.8688524590164</v>
+        <v>132.6857142857143</v>
       </c>
       <c r="H3" t="n">
         <v>258</v>
@@ -25176,19 +24983,19 @@
         <v>576</v>
       </c>
       <c r="N3" t="n">
-        <v>672</v>
+        <v>672.0000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>652.7213114754099</v>
+        <v>619.2</v>
       </c>
       <c r="P3" t="n">
-        <v>454.5737704918033</v>
+        <v>431.2285714285715</v>
       </c>
       <c r="Q3" t="n">
-        <v>221.4590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="R3" t="n">
-        <v>23.31147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -25229,7 +25036,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>186.4918032786885</v>
+        <v>176.9142857142857</v>
       </c>
       <c r="H4" t="n">
         <v>387</v>
@@ -25238,25 +25045,25 @@
         <v>432</v>
       </c>
       <c r="J4" t="n">
-        <v>576</v>
+        <v>575.999999999998</v>
       </c>
       <c r="K4" t="n">
-        <v>711</v>
+        <v>674.4857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>664.3770491803278</v>
+        <v>630.2571428571429</v>
       </c>
       <c r="M4" t="n">
-        <v>571.1311475409836</v>
+        <v>541.8000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>419.6065573770492</v>
+        <v>398.0571428571429</v>
       </c>
       <c r="O4" t="n">
-        <v>221.4590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="P4" t="n">
-        <v>34.9672131147541</v>
+        <v>33.17142857142857</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -25393,16 +25200,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.31147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="G2" t="n">
-        <v>174.8360655737705</v>
+        <v>165.8571428571429</v>
       </c>
       <c r="H2" t="n">
         <v>288</v>
       </c>
       <c r="I2" t="n">
-        <v>336</v>
+        <v>336.0000000000001</v>
       </c>
       <c r="J2" t="n">
         <v>444</v>
@@ -25411,25 +25218,25 @@
         <v>540</v>
       </c>
       <c r="L2" t="n">
-        <v>684</v>
+        <v>683.9999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>726</v>
       </c>
       <c r="N2" t="n">
-        <v>769.2786885245903</v>
+        <v>729.7714285714286</v>
       </c>
       <c r="O2" t="n">
-        <v>641.0655737704918</v>
+        <v>608.1428571428572</v>
       </c>
       <c r="P2" t="n">
-        <v>466.2295081967213</v>
+        <v>442.2857142857143</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.7704918032787</v>
+        <v>232.2</v>
       </c>
       <c r="R2" t="n">
-        <v>58.27868852459017</v>
+        <v>55.28571428571429</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -25470,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>139.8688524590164</v>
+        <v>132.6857142857143</v>
       </c>
       <c r="H3" t="n">
         <v>258</v>
@@ -25491,19 +25298,19 @@
         <v>576</v>
       </c>
       <c r="N3" t="n">
-        <v>672</v>
+        <v>672.0000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>652.7213114754099</v>
+        <v>619.2</v>
       </c>
       <c r="P3" t="n">
-        <v>454.5737704918033</v>
+        <v>431.2285714285715</v>
       </c>
       <c r="Q3" t="n">
-        <v>221.4590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="R3" t="n">
-        <v>23.31147540983607</v>
+        <v>22.11428571428572</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -25544,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>186.4918032786885</v>
+        <v>176.9142857142857</v>
       </c>
       <c r="H4" t="n">
         <v>387</v>
@@ -25556,22 +25363,22 @@
         <v>576</v>
       </c>
       <c r="K4" t="n">
-        <v>711</v>
+        <v>674.4857142857143</v>
       </c>
       <c r="L4" t="n">
-        <v>664.3770491803278</v>
+        <v>630.2571428571429</v>
       </c>
       <c r="M4" t="n">
-        <v>571.1311475409836</v>
+        <v>541.8000000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>419.6065573770492</v>
+        <v>398.0571428571429</v>
       </c>
       <c r="O4" t="n">
-        <v>221.4590163934426</v>
+        <v>210.0857142857143</v>
       </c>
       <c r="P4" t="n">
-        <v>34.9672131147541</v>
+        <v>33.17142857142857</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -25876,10 +25683,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>22.12131147540981</v>
+        <v>20.14285714285711</v>
       </c>
       <c r="O2" t="n">
-        <v>85.43442622950818</v>
+        <v>83.78571428571433</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -25953,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.678688524590029</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26191,10 +25998,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>22.12131147540981</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>85.43442622950818</v>
+        <v>67</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26268,7 +26075,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.678688524590029</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26506,10 +26313,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>22.12131147540981</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>85.43442622950818</v>
+        <v>67</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26583,7 +26390,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.678688524590029</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26821,10 +26628,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>22.12131147540981</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>85.43442622950818</v>
+        <v>67</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26898,7 +26705,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.678688524590029</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27136,10 +26943,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>22.12131147540981</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>85.43442622950818</v>
+        <v>67</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27213,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.678688524590029</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27451,10 +27258,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>22.12131147540981</v>
+        <v>68.2285714285714</v>
       </c>
       <c r="O2" t="n">
-        <v>85.43442622950818</v>
+        <v>123.8571428571428</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27528,7 +27335,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.678688524590029</v>
+        <v>40.79999999999995</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27766,10 +27573,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>22.12131147540981</v>
+        <v>68.2285714285714</v>
       </c>
       <c r="O2" t="n">
-        <v>85.43442622950818</v>
+        <v>123.8571428571428</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27843,7 +27650,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.678688524590029</v>
+        <v>40.79999999999995</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -28081,10 +27888,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>22.12131147540981</v>
+        <v>68.2285714285714</v>
       </c>
       <c r="O2" t="n">
-        <v>85.43442622950818</v>
+        <v>123.8571428571428</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28158,7 +27965,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.678688524590029</v>
+        <v>40.79999999999995</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -28396,10 +28203,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>22.12131147540981</v>
+        <v>68.2285714285714</v>
       </c>
       <c r="O2" t="n">
-        <v>85.43442622950818</v>
+        <v>123.8571428571428</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28473,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.678688524590029</v>
+        <v>40.79999999999995</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -28711,10 +28518,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>22.12131147540981</v>
+        <v>68.2285714285714</v>
       </c>
       <c r="O2" t="n">
-        <v>85.43442622950818</v>
+        <v>123.8571428571428</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28788,7 +28595,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.678688524590029</v>
+        <v>40.79999999999995</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -29170,10 +28977,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28.72131147540972</v>
+        <v>68.2285714285714</v>
       </c>
       <c r="O2" t="n">
-        <v>90.93442622950806</v>
+        <v>123.8571428571428</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -29247,7 +29054,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.278688524590052</v>
+        <v>40.79999999999995</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -29485,10 +29292,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28.72131147540972</v>
+        <v>68.2285714285714</v>
       </c>
       <c r="O2" t="n">
-        <v>90.93442622950818</v>
+        <v>123.8571428571428</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -29562,7 +29369,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.278688524590052</v>
+        <v>40.79999999999995</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -29800,10 +29607,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28.72131147540972</v>
+        <v>68.2285714285714</v>
       </c>
       <c r="O2" t="n">
-        <v>90.93442622950818</v>
+        <v>123.8571428571428</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -29877,7 +29684,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.278688524590052</v>
+        <v>40.79999999999995</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -30115,10 +29922,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28.72131147540972</v>
+        <v>68.2285714285714</v>
       </c>
       <c r="O2" t="n">
-        <v>90.93442622950818</v>
+        <v>123.8571428571428</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -30192,7 +29999,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.278688524590052</v>
+        <v>40.79999999999995</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -30430,10 +30237,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28.72131147540972</v>
+        <v>68.2285714285714</v>
       </c>
       <c r="O2" t="n">
-        <v>90.93442622950818</v>
+        <v>123.8571428571428</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -30507,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.278688524590052</v>
+        <v>40.79999999999995</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -30893,37 +30700,37 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>34.3134426229509</v>
+        <v>33.71428571428567</v>
       </c>
       <c r="O4" t="n">
-        <v>210.6409836065575</v>
+        <v>216.0714285714284</v>
       </c>
       <c r="P4" t="n">
-        <v>1105.682786885246</v>
+        <v>1111.592857142857</v>
       </c>
       <c r="Q4" t="n">
-        <v>927.5</v>
+        <v>933.4999999999998</v>
       </c>
       <c r="R4" t="n">
-        <v>220.25</v>
+        <v>226.2499999999998</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>71</v>
+        <v>70.99999999999977</v>
       </c>
       <c r="U4" t="n">
-        <v>256.415</v>
+        <v>260.7499999999998</v>
       </c>
       <c r="V4" t="n">
-        <v>312.5</v>
+        <v>312.4999999999998</v>
       </c>
       <c r="W4" t="n">
-        <v>278</v>
+        <v>277.9999999999998</v>
       </c>
       <c r="X4" t="n">
-        <v>157.25</v>
+        <v>157.2499999999998</v>
       </c>
     </row>
   </sheetData>
@@ -31208,37 +31015,37 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>34.79344262295092</v>
+        <v>22.72727272727252</v>
       </c>
       <c r="O4" t="n">
-        <v>211.8259836065574</v>
+        <v>210.272727272727</v>
       </c>
       <c r="P4" t="n">
-        <v>1105.682786885246</v>
+        <v>1110.677272727272</v>
       </c>
       <c r="Q4" t="n">
-        <v>927.5</v>
+        <v>933.4999999999997</v>
       </c>
       <c r="R4" t="n">
-        <v>226.25</v>
+        <v>226.2499999999997</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>71</v>
+        <v>70.99999999999966</v>
       </c>
       <c r="U4" t="n">
-        <v>260.75</v>
+        <v>260.7499999999997</v>
       </c>
       <c r="V4" t="n">
-        <v>312.5</v>
+        <v>312.4999999999997</v>
       </c>
       <c r="W4" t="n">
-        <v>272</v>
+        <v>277.9999999999997</v>
       </c>
       <c r="X4" t="n">
-        <v>151.25</v>
+        <v>157.2499999999997</v>
       </c>
     </row>
   </sheetData>
@@ -31523,37 +31330,37 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>34.79344262295092</v>
+        <v>22.72727272727263</v>
       </c>
       <c r="O4" t="n">
-        <v>216.6409836065575</v>
+        <v>210.272727272727</v>
       </c>
       <c r="P4" t="n">
-        <v>1111.682786885246</v>
+        <v>1110.677272727272</v>
       </c>
       <c r="Q4" t="n">
-        <v>933.5</v>
+        <v>933.4999999999997</v>
       </c>
       <c r="R4" t="n">
-        <v>226.25</v>
+        <v>226.2499999999997</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>71</v>
+        <v>70.99999999999966</v>
       </c>
       <c r="U4" t="n">
-        <v>260.75</v>
+        <v>260.7499999999997</v>
       </c>
       <c r="V4" t="n">
-        <v>312.5</v>
+        <v>312.4999999999997</v>
       </c>
       <c r="W4" t="n">
-        <v>278</v>
+        <v>277.9999999999997</v>
       </c>
       <c r="X4" t="n">
-        <v>157.25</v>
+        <v>157.2499999999997</v>
       </c>
     </row>
   </sheetData>
@@ -31838,37 +31645,37 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>34.79344262295092</v>
+        <v>22.72727272727263</v>
       </c>
       <c r="O4" t="n">
-        <v>216.6409836065575</v>
+        <v>210.272727272727</v>
       </c>
       <c r="P4" t="n">
-        <v>1111.682786885246</v>
+        <v>1110.677272727272</v>
       </c>
       <c r="Q4" t="n">
-        <v>933.5</v>
+        <v>933.4999999999997</v>
       </c>
       <c r="R4" t="n">
-        <v>226.25</v>
+        <v>226.2499999999997</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>71</v>
+        <v>70.99999999999966</v>
       </c>
       <c r="U4" t="n">
-        <v>260.75</v>
+        <v>260.7499999999997</v>
       </c>
       <c r="V4" t="n">
-        <v>312.5</v>
+        <v>312.4999999999997</v>
       </c>
       <c r="W4" t="n">
-        <v>278</v>
+        <v>277.9999999999997</v>
       </c>
       <c r="X4" t="n">
-        <v>157.25</v>
+        <v>157.2499999999997</v>
       </c>
     </row>
   </sheetData>
@@ -32153,37 +31960,37 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>34.79344262295092</v>
+        <v>22.72727272727252</v>
       </c>
       <c r="O4" t="n">
-        <v>216.6409836065575</v>
+        <v>210.272727272727</v>
       </c>
       <c r="P4" t="n">
-        <v>1111.682786885246</v>
+        <v>1110.677272727272</v>
       </c>
       <c r="Q4" t="n">
-        <v>933.5</v>
+        <v>933.4999999999997</v>
       </c>
       <c r="R4" t="n">
-        <v>226.25</v>
+        <v>226.2499999999997</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>71</v>
+        <v>70.99999999999966</v>
       </c>
       <c r="U4" t="n">
-        <v>260.75</v>
+        <v>260.7499999999997</v>
       </c>
       <c r="V4" t="n">
-        <v>312.5</v>
+        <v>312.4999999999997</v>
       </c>
       <c r="W4" t="n">
-        <v>278</v>
+        <v>277.9999999999997</v>
       </c>
       <c r="X4" t="n">
-        <v>157.25</v>
+        <v>157.2499999999997</v>
       </c>
     </row>
   </sheetData>
@@ -32612,13 +32419,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.942857142857179</v>
       </c>
       <c r="O4" t="n">
-        <v>166.6409836065575</v>
+        <v>179.9142857142858</v>
       </c>
       <c r="P4" t="n">
-        <v>1061.682786885246</v>
+        <v>1063.778571428571</v>
       </c>
       <c r="Q4" t="n">
         <v>883.5</v>
@@ -32927,13 +32734,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.942857142857179</v>
       </c>
       <c r="O4" t="n">
-        <v>166.6409836065575</v>
+        <v>179.9142857142858</v>
       </c>
       <c r="P4" t="n">
-        <v>1061.682786885246</v>
+        <v>1063.778571428571</v>
       </c>
       <c r="Q4" t="n">
         <v>883.5</v>
@@ -33242,13 +33049,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.942857142857179</v>
       </c>
       <c r="O4" t="n">
-        <v>166.6409836065574</v>
+        <v>179.9142857142858</v>
       </c>
       <c r="P4" t="n">
-        <v>1061.682786885246</v>
+        <v>1063.778571428571</v>
       </c>
       <c r="Q4" t="n">
         <v>883.5</v>
@@ -33557,13 +33364,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.942857142857179</v>
       </c>
       <c r="O4" t="n">
-        <v>166.6409836065575</v>
+        <v>179.9142857142858</v>
       </c>
       <c r="P4" t="n">
-        <v>1061.682786885246</v>
+        <v>1063.778571428571</v>
       </c>
       <c r="Q4" t="n">
         <v>883.5</v>
@@ -33872,13 +33679,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.942857142857179</v>
       </c>
       <c r="O4" t="n">
-        <v>166.6409836065575</v>
+        <v>179.9142857142858</v>
       </c>
       <c r="P4" t="n">
-        <v>1061.682786885246</v>
+        <v>1063.778571428571</v>
       </c>
       <c r="Q4" t="n">
         <v>883.5</v>
@@ -34181,43 +33988,43 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>9.74285714295722</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>88.39344262295094</v>
+        <v>109.9428571428574</v>
       </c>
       <c r="O4" t="n">
-        <v>268.5409836065575</v>
+        <v>279.9142857142859</v>
       </c>
       <c r="P4" t="n">
-        <v>1161.982786885246</v>
+        <v>1163.778571428571</v>
       </c>
       <c r="Q4" t="n">
-        <v>983.5</v>
+        <v>983.5000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>276.25</v>
+        <v>276.2500000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>34.75</v>
+        <v>34.75000000000009</v>
       </c>
       <c r="T4" t="n">
-        <v>121</v>
+        <v>121.0000000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>310.75</v>
+        <v>310.7500000000001</v>
       </c>
       <c r="V4" t="n">
-        <v>362.5</v>
+        <v>362.5000000000001</v>
       </c>
       <c r="W4" t="n">
-        <v>328</v>
+        <v>328.0000000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>207.25</v>
+        <v>207.2500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -34496,43 +34303,43 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>9.742857142958712</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>88.39344262295094</v>
+        <v>109.9428571428573</v>
       </c>
       <c r="O4" t="n">
-        <v>268.5409836065575</v>
+        <v>279.9142857142859</v>
       </c>
       <c r="P4" t="n">
-        <v>1161.982786885246</v>
+        <v>1163.778571428571</v>
       </c>
       <c r="Q4" t="n">
-        <v>983.5</v>
+        <v>983.5000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>276.25</v>
+        <v>276.2500000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>34.75</v>
+        <v>34.75000000000011</v>
       </c>
       <c r="T4" t="n">
-        <v>121</v>
+        <v>121.0000000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>310.75</v>
+        <v>310.7500000000001</v>
       </c>
       <c r="V4" t="n">
-        <v>362.5</v>
+        <v>362.5000000000001</v>
       </c>
       <c r="W4" t="n">
-        <v>328</v>
+        <v>328.0000000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>207.25</v>
+        <v>207.2500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -34811,43 +34618,43 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>9.742857142957078</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>88.39344262295094</v>
+        <v>109.9428571428573</v>
       </c>
       <c r="O4" t="n">
-        <v>268.5409836065575</v>
+        <v>279.9142857142859</v>
       </c>
       <c r="P4" t="n">
-        <v>1161.982786885246</v>
+        <v>1163.778571428571</v>
       </c>
       <c r="Q4" t="n">
-        <v>983.5</v>
+        <v>983.5000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>276.25</v>
+        <v>276.2500000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>34.75</v>
+        <v>34.75000000000011</v>
       </c>
       <c r="T4" t="n">
-        <v>121</v>
+        <v>121.0000000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>310.75</v>
+        <v>310.7500000000001</v>
       </c>
       <c r="V4" t="n">
-        <v>362.5</v>
+        <v>362.5000000000001</v>
       </c>
       <c r="W4" t="n">
-        <v>328</v>
+        <v>328.0000000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>207.25</v>
+        <v>207.2500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -35126,43 +34933,43 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>9.742857142951635</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>88.39344262295094</v>
+        <v>109.9428571428573</v>
       </c>
       <c r="O4" t="n">
-        <v>268.5409836065575</v>
+        <v>279.9142857142859</v>
       </c>
       <c r="P4" t="n">
-        <v>1161.982786885246</v>
+        <v>1163.778571428571</v>
       </c>
       <c r="Q4" t="n">
-        <v>983.5</v>
+        <v>983.5000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>276.25</v>
+        <v>276.2500000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>34.75</v>
+        <v>34.75000000000011</v>
       </c>
       <c r="T4" t="n">
-        <v>121</v>
+        <v>121.0000000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>310.75</v>
+        <v>310.7500000000001</v>
       </c>
       <c r="V4" t="n">
-        <v>362.5</v>
+        <v>362.5000000000001</v>
       </c>
       <c r="W4" t="n">
-        <v>328</v>
+        <v>328.0000000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>207.25</v>
+        <v>207.2500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -35447,37 +35254,37 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>88.39344262295094</v>
+        <v>109.9428571428573</v>
       </c>
       <c r="O4" t="n">
-        <v>268.5409836065575</v>
+        <v>279.9142857142859</v>
       </c>
       <c r="P4" t="n">
-        <v>1161.982786885246</v>
+        <v>1163.778571428571</v>
       </c>
       <c r="Q4" t="n">
-        <v>983.5</v>
+        <v>983.5000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>276.25</v>
+        <v>276.2500000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>34.75</v>
+        <v>34.75000000000011</v>
       </c>
       <c r="T4" t="n">
-        <v>121</v>
+        <v>121.0000000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>310.75</v>
+        <v>310.7500000000001</v>
       </c>
       <c r="V4" t="n">
-        <v>362.5</v>
+        <v>362.5000000000001</v>
       </c>
       <c r="W4" t="n">
-        <v>328</v>
+        <v>328.0000000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>207.25</v>
+        <v>207.2500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -35584,7 +35391,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>350</v>
+        <v>350.0000000000002</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -35619,7 +35426,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -35634,7 +35441,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -35660,7 +35467,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -35710,7 +35517,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -35865,22 +35672,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.882352941176467</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -35942,22 +35749,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.882352941176467</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -36013,22 +35820,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.882352941176467</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -36046,7 +35853,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -36180,22 +35987,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.882352941176467</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -36254,22 +36061,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3.882352941176467</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -36310,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3.882352941176482</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -36328,16 +36135,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -36361,7 +36168,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -38973,19 +38780,19 @@
         <v>200</v>
       </c>
       <c r="B2" t="n">
-        <v>550</v>
+        <v>550.0000000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="D2" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="E2" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="F2" t="n">
-        <v>550</v>
+        <v>550.0000000000003</v>
       </c>
       <c r="G2" t="n">
         <v>600</v>
@@ -39003,80 +38810,80 @@
         <v>600</v>
       </c>
       <c r="L2" t="n">
-        <v>500</v>
+        <v>499.9999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="N2" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="O2" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
       <c r="P2" t="n">
-        <v>500</v>
+        <v>499.9999999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>430</v>
       </c>
       <c r="B3" t="n">
-        <v>1175.573770491803</v>
+        <v>1178.571428571428</v>
       </c>
       <c r="C3" t="n">
-        <v>1175.573770491803</v>
+        <v>1209.090909090909</v>
       </c>
       <c r="D3" t="n">
-        <v>1175.573770491803</v>
+        <v>1209.090909090909</v>
       </c>
       <c r="E3" t="n">
-        <v>1175.573770491803</v>
+        <v>1209.090909090909</v>
       </c>
       <c r="F3" t="n">
-        <v>1175.573770491803</v>
+        <v>1209.090909090909</v>
       </c>
       <c r="G3" t="n">
-        <v>1175.573770491803</v>
+        <v>1105.714285714286</v>
       </c>
       <c r="H3" t="n">
-        <v>1175.573770491803</v>
+        <v>1105.714285714286</v>
       </c>
       <c r="I3" t="n">
-        <v>1175.573770491803</v>
+        <v>1105.714285714286</v>
       </c>
       <c r="J3" t="n">
-        <v>1175.573770491803</v>
+        <v>1105.714285714286</v>
       </c>
       <c r="K3" t="n">
-        <v>1175.573770491803</v>
+        <v>1105.714285714286</v>
       </c>
       <c r="L3" t="n">
-        <v>1165.573770491803</v>
+        <v>1105.714285714286</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.573770491803</v>
+        <v>1105.714285714286</v>
       </c>
       <c r="N3" t="n">
-        <v>1165.573770491803</v>
+        <v>1105.714285714286</v>
       </c>
       <c r="O3" t="n">
-        <v>1165.573770491803</v>
+        <v>1105.714285714286</v>
       </c>
       <c r="P3" t="n">
-        <v>1165.573770491803</v>
+        <v>1105.714285714286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -39120,13 +38927,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -40841,22 +40648,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4799999999999983</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -40883,7 +40690,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -40927,7 +40734,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -40960,7 +40767,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -40972,13 +40779,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4799999999999983</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -41025,19 +40832,19 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4799999999999983</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -41046,7 +40853,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>4.335</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -41165,13 +40972,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -41201,7 +41008,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -41219,7 +41026,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4799999999999983</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -41227,7 +41034,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -41242,10 +41049,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4799999999999998</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -41275,7 +41082,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -41290,7 +41097,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -41343,13 +41150,13 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.815000000000011</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -41367,10 +41174,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -42392,7 +42199,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>350</v>
+        <v>350.0000000000002</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -42407,7 +42214,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>250</v>
+        <v>249.9999999999997</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -42442,10 +42249,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1165.573770491803</v>
+        <v>748.5714285714284</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>30.51948051948057</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -42457,7 +42264,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>326.6233766233768</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
